--- a/metagenome/data_figures/filtered_data_1percent_change/ancombc2_results_family/virus_ANCOMBC2_results.xlsx
+++ b/metagenome/data_figures/filtered_data_1percent_change/ancombc2_results_family/virus_ANCOMBC2_results.xlsx
@@ -1328,34 +1328,34 @@
         <v>4783.4592</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.0323289651488821</v>
+        <v>-0.0381675390790376</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.102167401375035</v>
+        <v>0.114002573013586</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.134905596653489</v>
+        <v>0.134814459568366</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.189721291858531</v>
+        <v>0.188871449071263</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.23964139332129</v>
+        <v>-0.283111612813925</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.538513101899062</v>
+        <v>0.603598762937284</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.811199088009911</v>
+        <v>0.777804773925167</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.591664204608471</v>
+        <v>0.547776554145644</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS2" t="b">
         <v>0</v>
@@ -1636,34 +1636,34 @@
         <v>4466.1749</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.146893664243547</v>
+        <v>0.105878239687968</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0.298725322265924</v>
+        <v>-0.213020276079074</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.167242784977915</v>
+        <v>0.167152582128855</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.242264316710556</v>
+        <v>0.228477478961032</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.878325867767298</v>
+        <v>0.633422698827043</v>
       </c>
       <c r="CN3" t="n">
-        <v>-1.2330553930599</v>
+        <v>-0.932346929980813</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.382302472037918</v>
+        <v>0.528220431045648</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.2210360126564</v>
+        <v>0.353894369101942</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.847699955792783</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS3" t="b">
         <v>0</v>
@@ -1944,34 +1944,34 @@
         <v>8.6881</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.054287423699877</v>
+        <v>0.076412990625531</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0.158321457172631</v>
+        <v>-0.146126197126513</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.260674356058101</v>
+        <v>0.260590136363663</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.382127602629838</v>
+        <v>0.384776848426763</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.208257630404492</v>
+        <v>0.293230556197622</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0.414315679063872</v>
+        <v>-0.379768683391371</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.835544222370209</v>
+        <v>0.770086746075084</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.679724743181639</v>
+        <v>0.705098935284547</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS4" t="b">
         <v>0</v>
@@ -2252,34 +2252,34 @@
         <v>17.8786</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0774287252175658</v>
+        <v>0.0824491785815141</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0.192555482321686</v>
+        <v>-0.217780358003171</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.304836661593584</v>
+        <v>0.304754654656983</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.496898116924442</v>
+        <v>0.501482307996644</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.2540006993017</v>
+        <v>0.27054280327339</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0.387515017190066</v>
+        <v>-0.434273262546738</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.800199457627428</v>
+        <v>0.787506138921046</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.699487338896354</v>
+        <v>0.665370929301609</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS5" t="b">
         <v>0</v>
@@ -2560,34 +2560,34 @@
         <v>2607.5734</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.00576840576707358</v>
+        <v>0.0183255881130352</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.0169495980103975</v>
+        <v>-0.0142520941251699</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.170903414411435</v>
+        <v>0.170813436033421</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.232219824182147</v>
+        <v>0.226838877941425</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.0337524313773314</v>
+        <v>0.107284230904703</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.0729894532910449</v>
+        <v>-0.0628291510454841</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.973155606675846</v>
+        <v>0.914825550881617</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.941990118905489</v>
+        <v>0.950055452330008</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.941990118905489</v>
+        <v>0.950055452330008</v>
       </c>
       <c r="CS6" t="b">
         <v>0</v>
@@ -2868,34 +2868,34 @@
         <v>1795.7752</v>
       </c>
       <c r="CI7" t="n">
-        <v>-0.0190847042928238</v>
+        <v>-0.0185910165505973</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.072542081039116</v>
+        <v>0.0695585759219942</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.154408584851036</v>
+        <v>0.154317707628345</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.247186900036208</v>
+        <v>0.247580414324451</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.123598725493375</v>
+        <v>-0.120472347835618</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.293470572382639</v>
+        <v>0.28095346763108</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.901931823199319</v>
+        <v>0.904403683722036</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.769895037665912</v>
+        <v>0.779453779170485</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS7" t="b">
         <v>0</v>
@@ -3176,34 +3176,34 @@
         <v>0</v>
       </c>
       <c r="CI8" t="n">
-        <v>-1.01689733338562</v>
+        <v>-0.994771766459969</v>
       </c>
       <c r="CJ8" t="n">
-        <v>1.94059022670588</v>
+        <v>1.95278365239509</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.389746031403912</v>
+        <v>0.389667210095239</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.691374252326486</v>
+        <v>0.701820719728943</v>
       </c>
       <c r="CM8" t="n">
-        <v>-2.60912812818808</v>
+        <v>-2.55287522452001</v>
       </c>
       <c r="CN8" t="n">
-        <v>2.80685926641868</v>
+        <v>2.78245369152011</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.01194180325739</v>
+        <v>0.0137828253380452</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.00711298663197783</v>
+        <v>0.00759156785728956</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.147282240174477</v>
+        <v>0.169988179169225</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.0877268351277266</v>
+        <v>0.0936293369065712</v>
       </c>
       <c r="CS8" t="b">
         <v>0</v>
@@ -3484,34 +3484,34 @@
         <v>526.673</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.114519024863789</v>
+        <v>0.108879433662204</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.22630836575857</v>
+        <v>-0.219833797534095</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.267234435563055</v>
+        <v>0.267150573799244</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.345731118604299</v>
+        <v>0.346594759955187</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.428533937336707</v>
+        <v>0.407558299852365</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0.65457910376181</v>
+        <v>-0.634267516227074</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.66937252351479</v>
+        <v>0.68466006097563</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.514548628576202</v>
+        <v>0.527671788374905</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS9" t="b">
         <v>0</v>
@@ -3792,34 +3792,34 @@
         <v>135.3404</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.204582964340965</v>
+        <v>0.226708531266619</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0.38703659793883</v>
+        <v>-0.37452043342354</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.179222054643383</v>
+        <v>0.179132615573883</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.292678766618487</v>
+        <v>0.294494226385369</v>
       </c>
       <c r="CM10" t="n">
-        <v>1.14150551810181</v>
+        <v>1.26559047072649</v>
       </c>
       <c r="CN10" t="n">
-        <v>-1.32239383953445</v>
+        <v>-1.27174117476059</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.271555983693516</v>
+        <v>0.224965372301509</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.205846971892171</v>
+        <v>0.222829834016227</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.847699955792783</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS10" t="b">
         <v>0</v>
@@ -4100,34 +4100,34 @@
         <v>786.6492</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0.0325714798963976</v>
+        <v>0.0304445326369976</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.102709868573426</v>
+        <v>-0.0417653735849773</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.204398218817864</v>
+        <v>0.204310497232256</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.328599195675997</v>
+        <v>0.285139892320821</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0.159353051532321</v>
+        <v>0.149011103440216</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.312568837431665</v>
+        <v>-0.146473274030649</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.873777860967372</v>
+        <v>0.881910734240602</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.755392228922664</v>
+        <v>0.883907289502144</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.941990118905489</v>
+        <v>0.908460269766093</v>
       </c>
       <c r="CS11" t="b">
         <v>0</v>
@@ -4408,34 +4408,34 @@
         <v>2507.0892</v>
       </c>
       <c r="CI12" t="n">
-        <v>-0.0359151471326394</v>
+        <v>-0.0542916390680506</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.110189124233441</v>
+        <v>0.15060863785351</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.226835475559628</v>
+        <v>0.226749237634443</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.310497610038973</v>
+        <v>0.309996052078272</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0.158331262092196</v>
+        <v>-0.239434714905536</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.354879138102255</v>
+        <v>0.485840502947704</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.874580369015068</v>
+        <v>0.811365980960526</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.723580293152168</v>
+        <v>0.628375998986213</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS12" t="b">
         <v>0</v>
@@ -4716,34 +4716,34 @@
         <v>0</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.362182725466256</v>
+        <v>0.38430829239191</v>
       </c>
       <c r="CJ13" t="n">
-        <v>-1.62239684403979</v>
+        <v>-1.61095915041612</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.212316811298988</v>
+        <v>0.212229623967649</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.272824118877237</v>
+        <v>0.27252874846461</v>
       </c>
       <c r="CM13" t="n">
-        <v>1.70585985749487</v>
+        <v>1.810813614081</v>
       </c>
       <c r="CN13" t="n">
-        <v>-5.94667674806939</v>
+        <v>-5.91115307831574</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.10042980244111</v>
+        <v>0.0822044404882349</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.00000330067523561744</v>
+        <v>0.00000361058402512037</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.743180538064213</v>
+        <v>0.717717905410649</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.000122124983717845</v>
+        <v>0.000133591608929454</v>
       </c>
       <c r="CS13" t="b">
         <v>0</v>
@@ -5024,34 +5024,34 @@
         <v>13.0628</v>
       </c>
       <c r="CI14" t="n">
-        <v>-0.211573890662682</v>
+        <v>-0.170123537599959</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.564542428008755</v>
+        <v>0.458190074375537</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.385234670768551</v>
+        <v>0.385155708135718</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.577001297472027</v>
+        <v>0.57471452713803</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0.549207812060601</v>
+        <v>-0.441700678469531</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.978407553816852</v>
+        <v>0.797248116655824</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.58451637622178</v>
+        <v>0.660011499661711</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.331060651598682</v>
+        <v>0.427892495238878</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.847699955792783</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS14" t="b">
         <v>0</v>
@@ -5332,34 +5332,34 @@
         <v>0</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0.49042513345607</v>
+        <v>-0.468299566530416</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.501361794417534</v>
+        <v>0.514190574555768</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.109676034991275</v>
+        <v>0.109590265262873</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.185952533270513</v>
+        <v>0.185422234854401</v>
       </c>
       <c r="CM15" t="n">
-        <v>-4.47157971652683</v>
+        <v>-4.27318581086661</v>
       </c>
       <c r="CN15" t="n">
-        <v>2.69618157709194</v>
+        <v>2.77307937184299</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.00289543082605357</v>
+        <v>0.00368617867557837</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.0308088055036507</v>
+        <v>0.0275715676512328</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.053565470281991</v>
+        <v>0.0681943054981999</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.284981450908769</v>
+        <v>0.255037000773904</v>
       </c>
       <c r="CS15" t="b">
         <v>0</v>
@@ -5640,34 +5640,34 @@
         <v>5237.5209</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.125333863001552</v>
+        <v>0.071814552389618</v>
       </c>
       <c r="CJ16" t="n">
-        <v>-0.250499451066722</v>
+        <v>-0.135686499509844</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.157907634367273</v>
+        <v>0.157816918221289</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.235502362687472</v>
+        <v>0.206054086944539</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.793716298162261</v>
+        <v>0.455049770322599</v>
       </c>
       <c r="CN16" t="n">
-        <v>-1.06368126505445</v>
+        <v>-0.65849943343451</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.429623956646334</v>
+        <v>0.650275963429605</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.290557978245786</v>
+        <v>0.512061971079888</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.847699955792783</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS16" t="b">
         <v>0</v>
@@ -5948,34 +5948,34 @@
         <v>66.8971</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.0875233896207175</v>
+        <v>0.0606278405844841</v>
       </c>
       <c r="CJ17" t="n">
-        <v>-0.165923392188542</v>
+        <v>-0.110289640276569</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.221098024553721</v>
+        <v>0.221011416763276</v>
       </c>
       <c r="CL17" t="n">
-        <v>0.357433742075127</v>
+        <v>0.357673291641304</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.395857854439815</v>
+        <v>0.274319949043276</v>
       </c>
       <c r="CN17" t="n">
-        <v>-0.464207411491855</v>
+        <v>-0.308353021749171</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.693225634736278</v>
+        <v>0.784528648857101</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.643714439012722</v>
+        <v>0.758595697526721</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS17" t="b">
         <v>0</v>
@@ -6256,34 +6256,34 @@
         <v>178.2951</v>
       </c>
       <c r="CI18" t="n">
-        <v>-0.469466011096403</v>
+        <v>-0.447340444170748</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.667945542140196</v>
+        <v>0.680193020765177</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.262789062775422</v>
+        <v>0.262704959633588</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.456658478659483</v>
+        <v>0.462155902502376</v>
       </c>
       <c r="CM18" t="n">
-        <v>-1.78647469623804</v>
+        <v>-1.70282451003089</v>
       </c>
       <c r="CN18" t="n">
-        <v>1.462680697621</v>
+        <v>1.47178261076451</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.0822189274121822</v>
+        <v>0.0969889061365742</v>
       </c>
       <c r="CP18" t="n">
-        <v>0.151997981080065</v>
+        <v>0.149534858171109</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.743180538064213</v>
+        <v>0.717717905410649</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.847699955792783</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS18" t="b">
         <v>0</v>
@@ -6564,34 +6564,34 @@
         <v>52.4701</v>
       </c>
       <c r="CI19" t="n">
-        <v>-0.0114063776149739</v>
+        <v>-0.0407352503152855</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0.0401407846090682</v>
+        <v>0.103006337841425</v>
       </c>
       <c r="CK19" t="n">
-        <v>0.299999324907263</v>
+        <v>0.299917097125152</v>
       </c>
       <c r="CL19" t="n">
-        <v>0.454149516260298</v>
+        <v>0.455649306650578</v>
       </c>
       <c r="CM19" t="n">
-        <v>-0.0380213442763577</v>
+        <v>-0.135821701082573</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.0883867166469938</v>
+        <v>0.226064950254422</v>
       </c>
       <c r="CO19" t="n">
-        <v>0.969765383836237</v>
+        <v>0.892307734787545</v>
       </c>
       <c r="CP19" t="n">
-        <v>0.929790203979953</v>
+        <v>0.821734767281226</v>
       </c>
       <c r="CQ19" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR19" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS19" t="b">
         <v>0</v>
@@ -6872,34 +6872,34 @@
         <v>2814.1623</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.0208540004141433</v>
+        <v>-0.0145486182735473</v>
       </c>
       <c r="CJ20" t="n">
-        <v>-0.0167944952790994</v>
+        <v>0.060381239293016</v>
       </c>
       <c r="CK20" t="n">
-        <v>0.152253309273496</v>
+        <v>0.152162344346924</v>
       </c>
       <c r="CL20" t="n">
-        <v>0.22908507161121</v>
+        <v>0.21767196958373</v>
       </c>
       <c r="CM20" t="n">
-        <v>0.136969110974678</v>
+        <v>-0.0956124745316559</v>
       </c>
       <c r="CN20" t="n">
-        <v>-0.0733111728362731</v>
+        <v>0.27739556640429</v>
       </c>
       <c r="CO20" t="n">
-        <v>0.89138691438809</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CP20" t="n">
-        <v>0.941734887852635</v>
+        <v>0.78217452099812</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS20" t="b">
         <v>0</v>
@@ -7180,34 +7180,34 @@
         <v>448.0508</v>
       </c>
       <c r="CI21" t="n">
-        <v>-0.123670674346015</v>
+        <v>-0.101545107420361</v>
       </c>
       <c r="CJ21" t="n">
-        <v>0.240937398391674</v>
+        <v>0.253187721770787</v>
       </c>
       <c r="CK21" t="n">
-        <v>0.159711523764302</v>
+        <v>0.159620898395114</v>
       </c>
       <c r="CL21" t="n">
-        <v>0.232845674832806</v>
+        <v>0.232727866704717</v>
       </c>
       <c r="CM21" t="n">
-        <v>-0.774337827547904</v>
+        <v>-0.636164239403061</v>
       </c>
       <c r="CN21" t="n">
-        <v>1.03475144455519</v>
+        <v>1.08791321536079</v>
       </c>
       <c r="CO21" t="n">
-        <v>0.440985432182073</v>
+        <v>0.526462918523571</v>
       </c>
       <c r="CP21" t="n">
-        <v>0.303864462537574</v>
+        <v>0.279859959201626</v>
       </c>
       <c r="CQ21" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR21" t="n">
-        <v>0.847699955792783</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS21" t="b">
         <v>0</v>
@@ -7488,34 +7488,34 @@
         <v>396.8986</v>
       </c>
       <c r="CI22" t="n">
-        <v>-0.0604777503096965</v>
+        <v>-0.115320110850915</v>
       </c>
       <c r="CJ22" t="n">
-        <v>0.165131789234753</v>
+        <v>0.289159762982175</v>
       </c>
       <c r="CK22" t="n">
-        <v>0.200528876866848</v>
+        <v>0.200440891259496</v>
       </c>
       <c r="CL22" t="n">
-        <v>0.300332850043075</v>
+        <v>0.276601037983325</v>
       </c>
       <c r="CM22" t="n">
-        <v>-0.301591228428681</v>
+        <v>-0.575332259432127</v>
       </c>
       <c r="CN22" t="n">
-        <v>0.54982926180426</v>
+        <v>1.04540375224336</v>
       </c>
       <c r="CO22" t="n">
-        <v>0.763718033656329</v>
+        <v>0.566642036603492</v>
       </c>
       <c r="CP22" t="n">
-        <v>0.58391301457957</v>
+        <v>0.298908347160936</v>
       </c>
       <c r="CQ22" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR22" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS22" t="b">
         <v>0</v>
@@ -7796,34 +7796,34 @@
         <v>2.6933</v>
       </c>
       <c r="CI23" t="n">
-        <v>-0.117410281418462</v>
+        <v>-0.0952847144928075</v>
       </c>
       <c r="CJ23" t="n">
-        <v>0.0933005059697003</v>
+        <v>0.105711015280993</v>
       </c>
       <c r="CK23" t="n">
-        <v>0.292063984113382</v>
+        <v>0.29198138312734</v>
       </c>
       <c r="CL23" t="n">
-        <v>0.43978195291755</v>
+        <v>0.443749703548018</v>
       </c>
       <c r="CM23" t="n">
-        <v>-0.402001916720008</v>
+        <v>-0.326338321547205</v>
       </c>
       <c r="CN23" t="n">
-        <v>0.212151738721285</v>
+        <v>0.238222165413918</v>
       </c>
       <c r="CO23" t="n">
-        <v>0.68885721812049</v>
+        <v>0.745102144336631</v>
       </c>
       <c r="CP23" t="n">
-        <v>0.832579903497718</v>
+        <v>0.81237620793761</v>
       </c>
       <c r="CQ23" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR23" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS23" t="b">
         <v>0</v>
@@ -8104,34 +8104,34 @@
         <v>2735.7283</v>
       </c>
       <c r="CI24" t="n">
-        <v>-0.0422438928396497</v>
+        <v>-0.0207453674824435</v>
       </c>
       <c r="CJ24" t="n">
-        <v>0.124345529104385</v>
+        <v>0.074449534794294</v>
       </c>
       <c r="CK24" t="n">
-        <v>0.15767400571783</v>
+        <v>0.157583278173791</v>
       </c>
       <c r="CL24" t="n">
-        <v>0.247998959240506</v>
+        <v>0.239271315864676</v>
       </c>
       <c r="CM24" t="n">
-        <v>-0.267919195984964</v>
+        <v>-0.131647010538545</v>
       </c>
       <c r="CN24" t="n">
-        <v>0.501395366678924</v>
+        <v>0.311151106956758</v>
       </c>
       <c r="CO24" t="n">
-        <v>0.789426215716155</v>
+        <v>0.895585974756878</v>
       </c>
       <c r="CP24" t="n">
-        <v>0.617420197061026</v>
+        <v>0.756475381490792</v>
       </c>
       <c r="CQ24" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR24" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS24" t="b">
         <v>0</v>
@@ -8412,34 +8412,34 @@
         <v>486.4315</v>
       </c>
       <c r="CI25" t="n">
-        <v>0.222719774994201</v>
+        <v>0.15780305222665</v>
       </c>
       <c r="CJ25" t="n">
-        <v>-0.468336359471333</v>
+        <v>-0.330903634275</v>
       </c>
       <c r="CK25" t="n">
-        <v>0.330114221940094</v>
+        <v>0.330033292287023</v>
       </c>
       <c r="CL25" t="n">
-        <v>0.442684948653329</v>
+        <v>0.425460182568309</v>
       </c>
       <c r="CM25" t="n">
-        <v>0.674674885817605</v>
+        <v>0.478142829570696</v>
       </c>
       <c r="CN25" t="n">
-        <v>-1.05794507108506</v>
+        <v>-0.777754647397284</v>
       </c>
       <c r="CO25" t="n">
-        <v>0.501757337509658</v>
+        <v>0.633820836240236</v>
       </c>
       <c r="CP25" t="n">
-        <v>0.293149841920284</v>
+        <v>0.438951918840128</v>
       </c>
       <c r="CQ25" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR25" t="n">
-        <v>0.847699955792783</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS25" t="b">
         <v>0</v>
@@ -8720,34 +8720,34 @@
         <v>11577.8884</v>
       </c>
       <c r="CI26" t="n">
-        <v>0.0307643008315081</v>
+        <v>0.072617014624656</v>
       </c>
       <c r="CJ26" t="n">
-        <v>-0.0389622725284699</v>
+        <v>-0.137508305665067</v>
       </c>
       <c r="CK26" t="n">
-        <v>0.163522764261398</v>
+        <v>0.163432344965092</v>
       </c>
       <c r="CL26" t="n">
-        <v>0.24990074511728</v>
+        <v>0.21856677493285</v>
       </c>
       <c r="CM26" t="n">
-        <v>0.188134667185115</v>
+        <v>0.444324620320209</v>
       </c>
       <c r="CN26" t="n">
-        <v>-0.155910989821918</v>
+        <v>-0.629136362136076</v>
       </c>
       <c r="CO26" t="n">
-        <v>0.851230294408209</v>
+        <v>0.657978357695314</v>
       </c>
       <c r="CP26" t="n">
-        <v>0.876481760711381</v>
+        <v>0.531008623618193</v>
       </c>
       <c r="CQ26" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR26" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS26" t="b">
         <v>0</v>
@@ -9028,34 +9028,34 @@
         <v>1608.3243</v>
       </c>
       <c r="CI27" t="n">
-        <v>-0.0775762676672447</v>
+        <v>-0.0925067590566552</v>
       </c>
       <c r="CJ27" t="n">
-        <v>0.203378472797689</v>
+        <v>0.237367288638449</v>
       </c>
       <c r="CK27" t="n">
-        <v>0.164210263040762</v>
+        <v>0.16411988271829</v>
       </c>
       <c r="CL27" t="n">
-        <v>0.261185855096441</v>
+        <v>0.261278494330345</v>
       </c>
       <c r="CM27" t="n">
-        <v>-0.472420336163689</v>
+        <v>-0.56365357764386</v>
       </c>
       <c r="CN27" t="n">
-        <v>0.778673380771684</v>
+        <v>0.908483835406431</v>
       </c>
       <c r="CO27" t="n">
-        <v>0.637866613967234</v>
+        <v>0.574528172898803</v>
       </c>
       <c r="CP27" t="n">
-        <v>0.438386486812578</v>
+        <v>0.366285013222571</v>
       </c>
       <c r="CQ27" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR27" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS27" t="b">
         <v>0</v>
@@ -9336,34 +9336,34 @@
         <v>4.0051</v>
       </c>
       <c r="CI28" t="n">
-        <v>-0.109962911066654</v>
+        <v>-0.0878373441410002</v>
       </c>
       <c r="CJ28" t="n">
-        <v>0.038401588941937</v>
+        <v>0.0506134221753627</v>
       </c>
       <c r="CK28" t="n">
-        <v>0.202520112285596</v>
+        <v>0.202432262739676</v>
       </c>
       <c r="CL28" t="n">
-        <v>0.334025115525413</v>
+        <v>0.336741677500172</v>
       </c>
       <c r="CM28" t="n">
-        <v>-0.542972793297603</v>
+        <v>-0.43390980742016</v>
       </c>
       <c r="CN28" t="n">
-        <v>0.114966172174006</v>
+        <v>0.150303409281249</v>
       </c>
       <c r="CO28" t="n">
-        <v>0.58930326222983</v>
+        <v>0.666021076062088</v>
       </c>
       <c r="CP28" t="n">
-        <v>0.908883173550483</v>
+        <v>0.881065313487012</v>
       </c>
       <c r="CQ28" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR28" t="n">
-        <v>0.941990118905489</v>
+        <v>0.908460269766093</v>
       </c>
       <c r="CS28" t="b">
         <v>0</v>
@@ -9644,34 +9644,34 @@
         <v>18099.117</v>
       </c>
       <c r="CI29" t="n">
-        <v>-0.0370680480267178</v>
+        <v>-0.0374733680072794</v>
       </c>
       <c r="CJ29" t="n">
-        <v>0.11276798149651</v>
+        <v>0.112426617066894</v>
       </c>
       <c r="CK29" t="n">
-        <v>0.148012959846725</v>
+        <v>0.147921853823282</v>
       </c>
       <c r="CL29" t="n">
-        <v>0.222104290642555</v>
+        <v>0.221715880311469</v>
       </c>
       <c r="CM29" t="n">
-        <v>-0.250437853989972</v>
+        <v>-0.253332195606795</v>
       </c>
       <c r="CN29" t="n">
-        <v>0.507725362577499</v>
+        <v>0.507075167141639</v>
       </c>
       <c r="CO29" t="n">
-        <v>0.802867638155293</v>
+        <v>0.800645578419017</v>
       </c>
       <c r="CP29" t="n">
-        <v>0.612992551436707</v>
+        <v>0.613463051526147</v>
       </c>
       <c r="CQ29" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR29" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS29" t="b">
         <v>0</v>
@@ -9952,34 +9952,34 @@
         <v>152.5151</v>
       </c>
       <c r="CI30" t="n">
-        <v>-0.228826371259534</v>
+        <v>-0.233779104901762</v>
       </c>
       <c r="CJ30" t="n">
-        <v>0.541701072938338</v>
+        <v>0.558093695421936</v>
       </c>
       <c r="CK30" t="n">
-        <v>0.230106210772495</v>
+        <v>0.230020180309692</v>
       </c>
       <c r="CL30" t="n">
-        <v>0.324171126309112</v>
+        <v>0.325658468188205</v>
       </c>
       <c r="CM30" t="n">
-        <v>-0.994438048809444</v>
+        <v>-1.0163417165703</v>
       </c>
       <c r="CN30" t="n">
-        <v>1.67103430557169</v>
+        <v>1.71373923892377</v>
       </c>
       <c r="CO30" t="n">
-        <v>0.322899985041696</v>
+        <v>0.31245611501399</v>
       </c>
       <c r="CP30" t="n">
-        <v>0.0984815678520927</v>
+        <v>0.0903547245730226</v>
       </c>
       <c r="CQ30" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR30" t="n">
-        <v>0.728763602105486</v>
+        <v>0.668624961840367</v>
       </c>
       <c r="CS30" t="b">
         <v>0</v>
@@ -10260,34 +10260,34 @@
         <v>0</v>
       </c>
       <c r="CI31" t="n">
-        <v>-0.232558608425058</v>
+        <v>-0.210433041499404</v>
       </c>
       <c r="CJ31" t="n">
-        <v>-0.098377939824837</v>
+        <v>-0.0852862878540361</v>
       </c>
       <c r="CK31" t="n">
-        <v>0.171121293053635</v>
+        <v>0.171031328335458</v>
       </c>
       <c r="CL31" t="n">
-        <v>0.266512517203376</v>
+        <v>0.267505843268384</v>
       </c>
       <c r="CM31" t="n">
-        <v>-1.3590278817737</v>
+        <v>-1.23037716860074</v>
       </c>
       <c r="CN31" t="n">
-        <v>-0.369130654188991</v>
+        <v>-0.318820280005884</v>
       </c>
       <c r="CO31" t="n">
-        <v>0.186272883699879</v>
+        <v>0.230007852537979</v>
       </c>
       <c r="CP31" t="n">
-        <v>0.715138353270765</v>
+        <v>0.752511298011711</v>
       </c>
       <c r="CQ31" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR31" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS31" t="b">
         <v>0</v>
@@ -10568,34 +10568,34 @@
         <v>0</v>
       </c>
       <c r="CI32" t="n">
-        <v>-1.342715638805</v>
+        <v>-1.32059007187935</v>
       </c>
       <c r="CJ32" t="n">
-        <v>1.81479209275569</v>
+        <v>1.82623860397967</v>
       </c>
       <c r="CK32" t="n">
-        <v>0.190420160460624</v>
+        <v>0.190331481110283</v>
       </c>
       <c r="CL32" t="n">
-        <v>0.448017394809354</v>
+        <v>0.455122425861088</v>
       </c>
       <c r="CM32" t="n">
-        <v>-7.05133130629125</v>
+        <v>-6.93836912409756</v>
       </c>
       <c r="CN32" t="n">
-        <v>4.05071792698572</v>
+        <v>4.01263154748845</v>
       </c>
       <c r="CO32" t="n">
-        <v>0.000000216525607008443</v>
+        <v>0.000000284237235248243</v>
       </c>
       <c r="CP32" t="n">
-        <v>0.000434891677081569</v>
+        <v>0.000479625939677727</v>
       </c>
       <c r="CQ32" t="n">
-        <v>0.00000801144745931239</v>
+        <v>0.000010516777704185</v>
       </c>
       <c r="CR32" t="n">
-        <v>0.00804549602600903</v>
+        <v>0.00887307988403795</v>
       </c>
       <c r="CS32" t="b">
         <v>1</v>
@@ -10876,34 +10876,34 @@
         <v>21757.9207</v>
       </c>
       <c r="CI33" t="n">
-        <v>0.083040528444661</v>
+        <v>0.0836628544708449</v>
       </c>
       <c r="CJ33" t="n">
-        <v>-0.155895939557887</v>
+        <v>-0.162585347478035</v>
       </c>
       <c r="CK33" t="n">
-        <v>0.141773853116289</v>
+        <v>0.14168263847002</v>
       </c>
       <c r="CL33" t="n">
-        <v>0.197298410499229</v>
+        <v>0.195301656688885</v>
       </c>
       <c r="CM33" t="n">
-        <v>0.585725270346908</v>
+        <v>0.59049475203377</v>
       </c>
       <c r="CN33" t="n">
-        <v>-0.790153043622703</v>
+        <v>-0.832483196683952</v>
       </c>
       <c r="CO33" t="n">
-        <v>0.559649466825026</v>
+        <v>0.556482957337591</v>
       </c>
       <c r="CP33" t="n">
-        <v>0.431690144862012</v>
+        <v>0.407554277929592</v>
       </c>
       <c r="CQ33" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR33" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS33" t="b">
         <v>0</v>
@@ -11184,34 +11184,34 @@
         <v>4.7581</v>
       </c>
       <c r="CI34" t="n">
-        <v>-0.383625396312805</v>
+        <v>-0.460048295091355</v>
       </c>
       <c r="CJ34" t="n">
-        <v>0.697340705582977</v>
+        <v>0.85357118891997</v>
       </c>
       <c r="CK34" t="n">
-        <v>0.421486381764724</v>
+        <v>0.421408484340373</v>
       </c>
       <c r="CL34" t="n">
-        <v>0.731192624223428</v>
+        <v>0.730827932088331</v>
       </c>
       <c r="CM34" t="n">
-        <v>-0.91017269575022</v>
+        <v>-1.09169205696336</v>
       </c>
       <c r="CN34" t="n">
-        <v>0.95370314535598</v>
+        <v>1.16795096553152</v>
       </c>
       <c r="CO34" t="n">
-        <v>0.365994274655128</v>
+        <v>0.278937702945672</v>
       </c>
       <c r="CP34" t="n">
-        <v>0.343662144240317</v>
+        <v>0.247028419845234</v>
       </c>
       <c r="CQ34" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR34" t="n">
-        <v>0.847699955792783</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS34" t="b">
         <v>0</v>
@@ -11492,34 +11492,34 @@
         <v>3.9144</v>
       </c>
       <c r="CI35" t="n">
-        <v>0.180746461495501</v>
+        <v>0.202872028421154</v>
       </c>
       <c r="CJ35" t="n">
-        <v>-0.480172066911046</v>
+        <v>-0.467780042864168</v>
       </c>
       <c r="CK35" t="n">
-        <v>0.274856142005749</v>
+        <v>0.274772682797411</v>
       </c>
       <c r="CL35" t="n">
-        <v>0.447596907037816</v>
+        <v>0.452404253856707</v>
       </c>
       <c r="CM35" t="n">
-        <v>0.657603865704118</v>
+        <v>0.738326773810814</v>
       </c>
       <c r="CN35" t="n">
-        <v>-1.07277789314679</v>
+        <v>-1.03398683561523</v>
       </c>
       <c r="CO35" t="n">
-        <v>0.512728712533776</v>
+        <v>0.462531638869304</v>
       </c>
       <c r="CP35" t="n">
-        <v>0.286678631605839</v>
+        <v>0.304337553369907</v>
       </c>
       <c r="CQ35" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR35" t="n">
-        <v>0.847699955792783</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS35" t="b">
         <v>0</v>
@@ -11800,34 +11800,34 @@
         <v>9363.3407</v>
       </c>
       <c r="CI36" t="n">
-        <v>-0.00627422274207184</v>
+        <v>0.0398549476021583</v>
       </c>
       <c r="CJ36" t="n">
-        <v>0.0438870565176978</v>
+        <v>-0.0631295589112894</v>
       </c>
       <c r="CK36" t="n">
-        <v>0.152426843281159</v>
+        <v>0.152335885053029</v>
       </c>
       <c r="CL36" t="n">
-        <v>0.251155689729506</v>
+        <v>0.214971234262417</v>
       </c>
       <c r="CM36" t="n">
-        <v>-0.0411621903794117</v>
+        <v>0.261625470507389</v>
       </c>
       <c r="CN36" t="n">
-        <v>0.174740443128977</v>
+        <v>-0.293665146073576</v>
       </c>
       <c r="CO36" t="n">
-        <v>0.967265451726881</v>
+        <v>0.794266243689511</v>
       </c>
       <c r="CP36" t="n">
-        <v>0.861709136021342</v>
+        <v>0.769755783705109</v>
       </c>
       <c r="CQ36" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR36" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS36" t="b">
         <v>0</v>
@@ -12108,34 +12108,34 @@
         <v>647.5978</v>
       </c>
       <c r="CI37" t="n">
-        <v>-0.159954162572079</v>
+        <v>-0.100419402460279</v>
       </c>
       <c r="CJ37" t="n">
-        <v>0.387644816663765</v>
+        <v>0.255331127716948</v>
       </c>
       <c r="CK37" t="n">
-        <v>0.206754302685387</v>
+        <v>0.206666741022053</v>
       </c>
       <c r="CL37" t="n">
-        <v>0.35543382289295</v>
+        <v>0.324167839218891</v>
       </c>
       <c r="CM37" t="n">
-        <v>-0.773643694445758</v>
+        <v>-0.485900159666056</v>
       </c>
       <c r="CN37" t="n">
-        <v>1.09062444735462</v>
+        <v>0.78765101538817</v>
       </c>
       <c r="CO37" t="n">
-        <v>0.441339466605532</v>
+        <v>0.628333881461341</v>
       </c>
       <c r="CP37" t="n">
-        <v>0.278594246217379</v>
+        <v>0.433171759070073</v>
       </c>
       <c r="CQ37" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR37" t="n">
-        <v>0.847699955792783</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS37" t="b">
         <v>0</v>
@@ -12416,34 +12416,34 @@
         <v>1483.7828</v>
       </c>
       <c r="CI38" t="n">
-        <v>0.0815771266721245</v>
+        <v>0.0424256561528074</v>
       </c>
       <c r="CJ38" t="n">
-        <v>-0.152622540856163</v>
+        <v>-0.0689657621073573</v>
       </c>
       <c r="CK38" t="n">
-        <v>0.162166598084628</v>
+        <v>0.162076103435649</v>
       </c>
       <c r="CL38" t="n">
-        <v>0.242078329252699</v>
+        <v>0.22935076892318</v>
       </c>
       <c r="CM38" t="n">
-        <v>0.503045187083179</v>
+        <v>0.261763796472637</v>
       </c>
       <c r="CN38" t="n">
-        <v>-0.630467590086696</v>
+        <v>-0.30069993848792</v>
       </c>
       <c r="CO38" t="n">
-        <v>0.616264822568822</v>
+        <v>0.794159958308789</v>
       </c>
       <c r="CP38" t="n">
-        <v>0.53012079108513</v>
+        <v>0.764404411413824</v>
       </c>
       <c r="CQ38" t="n">
-        <v>0.973155606675846</v>
+        <v>0.924061633948089</v>
       </c>
       <c r="CR38" t="n">
-        <v>0.941990118905489</v>
+        <v>0.894240776158982</v>
       </c>
       <c r="CS38" t="b">
         <v>0</v>
